--- a/data/trans_camb/P17_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P17_R-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>3.641518655671261</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.740482214237884</v>
+        <v>3.740482214237895</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>6.120590274783744</v>
@@ -664,7 +664,7 @@
         <v>6.231925784682957</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>5.138855940389475</v>
+        <v>5.138855940389464</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.111640409594369</v>
+        <v>3.577481683551523</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.503541006859707</v>
+        <v>5.281610624377904</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.56918191680602</v>
+        <v>1.039717378123088</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.363436635505851</v>
+        <v>2.136408133419716</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.7313151570931012</v>
+        <v>0.877474729659972</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.023782171113115</v>
+        <v>0.8300804685527314</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.062484237090582</v>
+        <v>3.848487344202853</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.939608217127709</v>
+        <v>3.818420356057253</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.619973830019004</v>
+        <v>2.408604662968687</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.182766271576</v>
+        <v>11.04437331215134</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.3260879139253</v>
+        <v>13.18985501354665</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.42018904539325</v>
+        <v>10.75481492538529</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.39992267081999</v>
+        <v>7.216450582642571</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.266821147510769</v>
+        <v>6.479426951950649</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.347827334305752</v>
+        <v>6.297040921381587</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.436820043993585</v>
+        <v>8.309302372734757</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.304075514368799</v>
+        <v>8.660855015240312</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.531331715693923</v>
+        <v>7.621535799121546</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.04291231501402797</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04407851950223134</v>
+        <v>0.04407851950223147</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.07691737572904433</v>
@@ -769,7 +769,7 @@
         <v>0.07831652758571801</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.06457993354216715</v>
+        <v>0.06457993354216701</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.04181029595050364</v>
+        <v>0.04762353526093697</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.07398892279422983</v>
+        <v>0.07095225943646864</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.02080184880274029</v>
+        <v>0.01376101743018336</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.02751337499456471</v>
+        <v>0.02497326411522512</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.008567876713040271</v>
+        <v>0.01025512812276505</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01186721647051137</v>
+        <v>0.009595055859215582</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05044084907575994</v>
+        <v>0.04731232775764222</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.04833372210291031</v>
+        <v>0.04735916934848704</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.03246254583552294</v>
+        <v>0.02977040386578425</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1599382165668926</v>
+        <v>0.1569496397721704</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1889164500496895</v>
+        <v>0.1866750423554671</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1467671861599912</v>
+        <v>0.1506772462860099</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.08892911376651524</v>
+        <v>0.0868008235301871</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07495481208540286</v>
+        <v>0.07761449418239071</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0758611946201041</v>
+        <v>0.07543169762895821</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1074244991411223</v>
+        <v>0.1052747217234853</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1052137570830626</v>
+        <v>0.1106812651323567</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.09592844755248564</v>
+        <v>0.09689749104434769</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>14.23558843092403</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.650618974395317</v>
+        <v>6.650618974395329</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>6.00978355822569</v>
@@ -869,7 +869,7 @@
         <v>8.370899395400288</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.539253062978464</v>
+        <v>2.539253062978486</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>7.746455766824312</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.650809842199291</v>
+        <v>6.284549199917435</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>11.3186334211414</v>
+        <v>11.09206606330883</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.07760268024233</v>
+        <v>3.162192724201403</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.911835456716885</v>
+        <v>3.006131873116591</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.41612097907989</v>
+        <v>5.530017173681706</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.0922362173815892</v>
+        <v>-0.5584536224246851</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.571893132375767</v>
+        <v>5.446743129289621</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>9.197574528471842</v>
+        <v>9.328352702039099</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.836555196505194</v>
+        <v>2.585998335603805</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.80153121672135</v>
+        <v>13.02821927501913</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.55389814042499</v>
+        <v>17.40326745456449</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.910601720355809</v>
+        <v>9.691885697084603</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.198689586599629</v>
+        <v>9.12082247924878</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.1878572214273</v>
+        <v>11.12908869850868</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.513933445137273</v>
+        <v>5.233443658172501</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.01725299807447</v>
+        <v>9.997105226200141</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>13.56244395156924</v>
+        <v>13.65021703141565</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.044420668669198</v>
+        <v>6.976398238161265</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2413130943744123</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.1127372747536184</v>
+        <v>0.1127372747536186</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.08370000327175341</v>
@@ -974,7 +974,7 @@
         <v>0.1165839501530033</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03536491582766012</v>
+        <v>0.03536491582766044</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1188223277662874</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1087304357849726</v>
+        <v>0.1029649728782076</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1847454737844286</v>
+        <v>0.1832558026322674</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.05008336855277678</v>
+        <v>0.05232050796187847</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.03979052033578896</v>
+        <v>0.04146766505305684</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07306241770590809</v>
+        <v>0.07531649032323061</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.00123173517919962</v>
+        <v>-0.00743128741859319</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08522043951223221</v>
+        <v>0.08212020635509786</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1375545910545308</v>
+        <v>0.1394534776572976</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.04284686353162772</v>
+        <v>0.03911386037675946</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2252734686176755</v>
+        <v>0.2270851885446933</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3083781366775258</v>
+        <v>0.3030832856133899</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1743317913773933</v>
+        <v>0.1687492969696766</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1310626880753783</v>
+        <v>0.1294740489983926</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1602680175884031</v>
+        <v>0.1589555627737471</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07820510528776371</v>
+        <v>0.07494680547691217</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1571956406805048</v>
+        <v>0.1573669680513458</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2120829797461923</v>
+        <v>0.2140505727580237</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1106917077216913</v>
+        <v>0.1084764438722778</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>13.09506874522649</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11.94050421562133</v>
+        <v>11.94050421562132</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>7.376434639127217</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.867052456574661</v>
+        <v>2.592476828689929</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.932318587812036</v>
+        <v>6.826486632840154</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.564140784538632</v>
+        <v>5.993528292274638</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.201450107694875</v>
+        <v>1.576843458765124</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.20249663569447</v>
+        <v>-1.548155242310245</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.73399038494007</v>
+        <v>-3.229563783105681</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.20728905885028</v>
+        <v>4.706014065870088</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.780615625725951</v>
+        <v>4.606636966410003</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.359998360945984</v>
+        <v>3.103166188656066</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.89398058275471</v>
+        <v>15.75203302253624</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>19.03901263532052</v>
+        <v>19.36985503827923</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.49336994211909</v>
+        <v>17.28327278420399</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.54603810667605</v>
+        <v>13.90462258859394</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.726759456086263</v>
+        <v>9.347865752820297</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.070603111271826</v>
+        <v>7.483478953541288</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.94376506007506</v>
+        <v>13.57027128759726</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>13.57792901672546</v>
+        <v>13.14706308178963</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.50093615977895</v>
+        <v>11.49308242460333</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2447400655063773</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.223161851286623</v>
+        <v>0.2231618512866228</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1064478773081881</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.05017361780340426</v>
+        <v>0.04074133223164748</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1208361301514624</v>
+        <v>0.1198514213243569</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.09741100519774987</v>
+        <v>0.1044809759429854</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.01718485994593075</v>
+        <v>0.02100655998499034</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03004584229017801</v>
+        <v>-0.02074089529462072</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.05068964469409895</v>
+        <v>-0.04477606043787723</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06677562760653857</v>
+        <v>0.07393005193341438</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.0750707083561854</v>
+        <v>0.07249515525443304</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.05396759065749868</v>
+        <v>0.0482527922026612</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.3154176508328765</v>
+        <v>0.3127911681837961</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3837603357462165</v>
+        <v>0.3844204140662287</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3470597036240481</v>
+        <v>0.3473193260354693</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2017126508349693</v>
+        <v>0.2089252448259195</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1453568709235213</v>
+        <v>0.1397244289257042</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1084917163327592</v>
+        <v>0.1140828764892806</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2219592360572837</v>
+        <v>0.2311933612450479</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2312913619989979</v>
+        <v>0.2254826198480135</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1980965208516937</v>
+        <v>0.1980221244267793</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>8.271720051144726</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.851911582151379</v>
+        <v>2.85191158215139</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.387620855824474</v>
+        <v>6.160180329307319</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>9.199729425281616</v>
+        <v>9.511798012584464</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.891664906205403</v>
+        <v>3.07306513562124</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.746146293600925</v>
+        <v>3.398319853967898</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.004083955681828</v>
+        <v>2.851488549670663</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.842209568974378</v>
+        <v>-1.619452152698629</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>5.682209357984614</v>
+        <v>5.52371948529971</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>6.716027574052258</v>
+        <v>6.732620782009438</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.462085826409503</v>
+        <v>1.262506891106321</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.96732491304961</v>
+        <v>10.83987464987339</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.89082879274733</v>
+        <v>14.14520274314456</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.01084265679204</v>
+        <v>8.25373946806401</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.443069888388582</v>
+        <v>7.407641984382238</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.789169974546061</v>
+        <v>6.724372798055636</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.059712549409844</v>
+        <v>2.228330013894309</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.68171097674017</v>
+        <v>8.652868197949131</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.99863375705066</v>
+        <v>9.73026636854887</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>4.403260464835701</v>
+        <v>4.384181712865947</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1188585948641862</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.0409798930857797</v>
+        <v>0.04097989308577986</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1002877417060944</v>
+        <v>0.09844583637774953</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1447994229553153</v>
+        <v>0.1514716226678117</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.04569624980363551</v>
+        <v>0.04807800432183872</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.0479421483788493</v>
+        <v>0.04396096456554847</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.03896139946154115</v>
+        <v>0.03667008152621812</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.02394776344056541</v>
+        <v>-0.0208981474278925</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0807064810180545</v>
+        <v>0.07820461200951116</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.09522758136508568</v>
+        <v>0.095839201760473</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.02067338942626137</v>
+        <v>0.01781496340944437</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1810347669947271</v>
+        <v>0.1785134374863602</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.22783673057197</v>
+        <v>0.2332628283053773</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1298849873715916</v>
+        <v>0.134781664274374</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.09812778748389603</v>
+        <v>0.09845095434919973</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08964467278423616</v>
+        <v>0.08920244113779541</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02729870713596319</v>
+        <v>0.02975347202711019</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1265515117213074</v>
+        <v>0.1258736653630615</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1457240575766389</v>
+        <v>0.1414815774142555</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.06405319410733926</v>
+        <v>0.06365621776580008</v>
       </c>
     </row>
     <row r="28">
